--- a/SRKW/SRKW_Inputs.xlsx
+++ b/SRKW/SRKW_Inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11160" tabRatio="805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="R_In_RunID" sheetId="11" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="StkLUT" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,40 +33,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jon Carey</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jon Carey:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-enter correct runIDs here</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Eric Ward</author>
@@ -198,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="131">
   <si>
     <t>Stock</t>
   </si>
@@ -588,6 +555,9 @@
   </si>
   <si>
     <t>NoAction</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1219,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1274,166 +1244,257 @@
       <c r="A2">
         <v>1992</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="48">
+        <v>439</v>
+      </c>
+      <c r="C2" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1993</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="48">
+        <v>439</v>
+      </c>
+      <c r="C3" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1994</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="48">
+        <v>439</v>
+      </c>
+      <c r="C4" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1995</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="48">
+        <v>439</v>
+      </c>
+      <c r="C5" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1996</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="48">
+        <v>439</v>
+      </c>
+      <c r="C6" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1997</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="48">
+        <v>439</v>
+      </c>
+      <c r="C7" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1998</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="48">
+        <v>439</v>
+      </c>
+      <c r="C8" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1999</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="48">
+        <v>439</v>
+      </c>
+      <c r="C9" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2000</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="48">
+        <v>439</v>
+      </c>
+      <c r="C10" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2001</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
+      <c r="B11" s="48">
+        <v>439</v>
+      </c>
+      <c r="C11" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2002</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="48">
+        <v>439</v>
+      </c>
+      <c r="C12" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2003</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
+      <c r="B13" s="48">
+        <v>439</v>
+      </c>
+      <c r="C13" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2004</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="48">
+        <v>439</v>
+      </c>
+      <c r="C14" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2005</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="48">
+        <v>439</v>
+      </c>
+      <c r="C15" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="48">
+        <v>439</v>
+      </c>
+      <c r="C16" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2007</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="48">
+        <v>439</v>
+      </c>
+      <c r="C17" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2008</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="48">
+        <v>439</v>
+      </c>
+      <c r="C18" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2009</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="48">
+        <v>439</v>
+      </c>
+      <c r="C19" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2010</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="48">
+        <v>439</v>
+      </c>
+      <c r="C20" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2011</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="48">
+        <v>439</v>
+      </c>
+      <c r="C21" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2012</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="48">
+        <v>439</v>
+      </c>
+      <c r="C22" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2013</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="48">
+        <v>439</v>
+      </c>
+      <c r="C23" s="48">
+        <v>439</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2014</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="48">
+        <v>439</v>
+      </c>
+      <c r="C24" s="48">
+        <v>439</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13633,607 +13694,827 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>30</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>34</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>36</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>40</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>41</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>42</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>43</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>46</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>48</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>49</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>54</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>61</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>63</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>65</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>72</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14786,7 +15067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23912,8 +24193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
